--- a/500all/speech_level/speeches_CHRG-114hhrg97713.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97713.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412641</t>
   </si>
   <si>
-    <t>David Rouzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rouzer. This joint hearing of the Subcommittee on Livestock and Foreign Agriculture, of the Committee on Agriculture, and the Subcommittee on Coast Guard and Maritime Transportation, of the Committee on Transportation and Infrastructure, on U.S. international food aid programs will come to order. I want to thank each of you for joining us this morning. We are going to have two panels, and it is very important that we continue our review of international food aid programs.    To date, we have heard from USDA and USAID officials charged with implementing these vital programs. We have heard from those tasked with program oversight and accountability about what is working, and what could be improved. We have heard from those producing and processing the food used in our food aid programs, and we have heard from on the ground implementers. Today we will hear from those who are tasked with shipping that aid to those in need around the globe. To that end, we are holding this hearing in collaboration with our colleagues from the Transportation and Infrastructure Committee. I want to thank my friend, Chairman Duncan Hunter, along with our other colleagues on the Coast Guard and Maritime Transportation Subcommittee, for their willingness to examine these issues with us.    While the agriculture and maritime communities have worked hand in hand for the past 60 years to deliver food to hungry people around the world, the vast majority of government-impelled cargo is military hardware. However, with the volume of military cargo declining, the availability of other government-impelled cargo, like food aid, has assumed greater significance in sustaining a viable U.S. merchant marine industry. Given this reality, I personally remain perplexed at USAID's continued push to move away from in-kind donations in exchange for more cash-based assistance. I am particularly concerned by the fact that they attempted to achieve this by driving a wedge between the agriculture and maritime communities, while using scarce food aid funding to do it. I look forward to exploring this, and confirming where things currently stand with our witnesses today.    Given the interconnectedness of our maritime security and food aid programs, undermining one ultimately jeopardizes both. As we move forward, we must work to maximize cooperation and program efficiency throughout all sectors to reach the maximum number of people in need, but we must do so in a way that does not jeopardize the long-term support and accomplishments these programs have achieved.    Again, thank you all for being here today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Chairman Rouzer, and I want to also welcome Chairman Hunter, when he gets here, and Ranking Member John Garamendi, who I have worked with for years, not only in Congress, but in the California State Legislature, as we share a lot of common interests as it relates to California issues. It is, I believe, important that the House Committee on Transportation and Infrastructure, Subcommittee on Coast Guard and Maritime Transportation meet with our Subcommittee on this important issue. This hearing is the next part of the Committee's review of the international food aid programs that I have always taken an interest in, and I am glad that we have representatives from the maritime industry on the other panel that can also testify to the important role they play in transportation of food to countries and regions that are in need.    The United States established itself as one of the global leaders, and we have led for decades, in international food aid. My constituents in California's great Central Valley, the San Joaquin Valley, are proud that the fruits, vegetables, and dairy products that they produce are used by numerous agencies, and for food aid programs, such as U.S. Agency for International Development, USAID. It is food that is not only used for my constituencies, throughout California, it is used throughout the country, because we do have the ability to produce an abundance of food, and this is an area where we can be helpful. These programs, which operate throughout the world, in some of the most dangerous regions in the world, such as Syria and the South Sudan, perform incredible services to bring food to those most in need living in those areas. You have abject poverty, you have conflict, and it seems like constant conflict, civil wars, in which man's inhumanity to mankind is being exhibited. And this food, therefore, provides the sort of humanitarian support that our nation must, and can, provide.    The efforts also support countless jobs here in America, especially in the transportation and logistic side of these programs. That is why the reforms that have been made to our international food aid programs, for me, are troubling in some areas. It is clear that we need to have flexibility, and I don't think anybody argues against that, within programs on how the aid is delivered to these countries, and to the regions. However, let me be clear, the emphasis must remain on providing in-kind donations, such as these food products, whether they be fruits, vegetables, dairy products from my district, or other parts of the country, because, again, it is important that we provide the sustenance for these people most in need. I think that is far better than providing cash-based assistance. Cash-based assistance, in which we have, I believe, less control over, it is akin to when sometimes we see a person asking for a handout in our communities. I used to go into the store and buy a sandwich and hand them something to eat, as opposed to giving them cash. I don't know what they are going to do with that cash.    So I understand there are challenges, but our mariners also provide security, relative to the Maritime Security Program. Military cargo accounts for the vast majority of the cargo preferences tonnage, and it has been successful, but we have a responsibility and the resources to do what we can for those who are struggling to feed themselves. And that is why, again, these international food aid programs are so important. In a more perfect world, we would not have to struggle to find the space on ships to transport food aid on military cargo, but that is not the reality. Again, I welcome my colleagues from the Transportation and Infrastructure Committee, and I look forward to hearing the testimony of these witnesses that we have here today. And, Mr. Chairman, I yield back the balance of my time. Thank you.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412283</t>
   </si>
   <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Mr. Chairman. I have a little something to say, but let's focus on this right now. There is no peace dividend in terms of not having to move stuff around anymore. I think that we are seeing it is loud and clear, there is not going to be a time where we don't have to move military goods overseas somewhere. It is not going to happen. We are going to have to do it over and over, and it seems like a year or 2, or 3 years ago we reached a time where we thought it would be okay to start losing U.S.-flag ships, not having them ship the 75 percent cargo preference, moving that to 50.    I think it is clear now, at least with what happened in Paris, and what a lot of us have been talking about non-stop, things haven't gone away, the world is not a safer place. You are going to need these ships to move gear to our troops on the ground overseas. And that is it. I mean, that is what I am here for. This is not about helping people. It is, in a way, about helping people, and giving food to third world countries, but in the end it is about national security. It is about maintaining a U.S. fleet to serve our U.S. military. That is what it is about. It is about national security. And this is a way to subsidize the national security aspect of our maritime fleet without having to spend tens of billions of dollars to create a just sit there forever fleet in the Navy, just in case we need it sometime. We are saving tens of billions of dollars with MSP, with food aid, and we just need to figure out how we make it clear to the government, the Executive Branch, that, as long as they keep putting us into wars, because that is what the Commander-in-Chief can do, you are going to need ships to supply those wars.    So that is what I would like to get out of this today, is that we talk about MSP, talk about food aid, and how you can subsidize long-term the U.S.-flag cargo fleet to support our troops. That is it. And with that, I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -88,27 +79,18 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Chairman Rouzer. I appreciate your involvement in this. Mr. Hunter and I have been working on this for some time, and I know my good friend Jim Costa also. The international food aid program is perhaps mostly recognized as the P.L. 83-480 program. It is an issue of mutual strong interest between our two Committees. Regrettably, too much has been said in recent years to mischaracterize the program's multifaceted framework. I am pleased that we have this opportunity today to set this straight.    First and foremost, I want to make it very clear that I am not going to take a back seat to anybody when it comes to food aid. My wife and I have been in the famine camps. We were there in the 1980s, my wife in the 1990s, and we have seen what happens when the lorry arrives with American food in that lorry. We know that that is food. That is real food available. We also know when cash arrives, it disappears. There is a very, very real difference. And if you want to feed people, then you bring food. If you want corruption and chaos, bring cash. It is that simple.    Now, this is a multifaceted program. It is not just about delivering food to those who need it around the world. By the way, people say you can buy locally. That is where the famine is, folks. We are going to buy regionally? Sure, we can buy rice in Brazil, or grain in France. We could also buy it in America. Now, multifaceted it is. Emergency food assistance, yes, but it is also about the maritime industry, as our Chairman, Mr. Hunter, said. It is about the maritime industry, and the importance in the maritime industry being supported by impelled cargo. That is cargo that is required to be carried on American ships. It maintains our Merchant Marines. Lose that, and we lose the ability to deal with our national security issues around the world. We have a 60 year record of a successful P.L. 83-480 program, which provides food. It also provides the foundation for our Merchant Marines, for our ships and our sailors. It has been durable, it has been effective, and there are those who are determined in ways that lack understanding to somehow destroy that long established and successful program by cashing it out.    So, I want to commend you for these hearings. We are going to learn today what this is all about. Mr. Jaenichen is here, and also the Department of Defense is here. And I would like to know from them what they think about maintaining our capability to transport personnel and equipment around the world in times of national security issues. You might also just think about what happened with Operation Desert Storm back in the 1990s, when we didn't have a viable shipping capability of our own ships. And so I am going to ask that question as we get into it. What happened in the 1990s, when we allowed our Merchant Marine capabilities to atrophy? What was the result? It is a question we will get to later. Mr. Chairman, thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rouzer. The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, and to ensure there is ample time for questions. The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in order of their arrival, and I appreciate the Members' understanding. Witnesses are asked to limit their oral presentations to 5 minutes. All written statements will be included in the record.    I would like to welcome our first panel of witnesses to the panel, Mr. David Berteau, Assistant Secretary of Defense, Logistics, and Material Readiness, Department of Defense, and the Honorable Paul Jaenichen, Administrator, Maritime Administration here in Washington. Gentlemen, thank you both for being here today. Mr. Berteau, we will begin with you.</t>
   </si>
   <si>
-    <t>Berteau</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Berteau. Thank you, Mr. Chairman. Chairman Hunter, Ranking Member Garamendi, Ranking Member Costa, distinguished Members of the Subcommittees, I appreciate the opportunity to testify today on behalf of the Defense Department on cargo preference, the U.S. Merchant Marine, and it is importance to us. My organization has the policy and oversight responsibilities for logistics and materiel readiness, as you noted, which includes sealift, air lift, transportation across the board. I ask, as you suggested, that my written statement in its entirety be included in the record, and I will summarize a little bit in my oral statement.    I must start out by saying I was born on a farm in Louisiana, and grew up picking strawberries, and later ran a farm in Texas. I grew up in the auto parts business, and married a car dealer's daughter, so the union of transportation and agriculture makes perfect sense to me. It has been true for my entire life. The success, however, of the Defense Department is much more than just that union. Our success depends on getting to the mission, and sustaining that mission, and that means we have to be ready. We have to have the national security readiness. Sealift capability is a major aspect of that readiness. We meet those requirements in part by maintaining our own surge sealift capacity, mostly roll-on, roll-off ships, by pre-positioning military equipment and supplies onboard ships located in key areas. But we also rely on the ships and the mariners in the commercial U.S. Merchant Marine as a contributor to our capacity to surge when needed.    We have a range of commercial sealift programs that we participate in across the government to support that role. My written statement covers some of those. I am sure we will discuss them today. They are important for the overall health of the Merchant Marine, as well as for providing the Defense Department with assured access to the capacity we need when we need it. The availability of mariners is at least as important as the availability of the number of ships for crewing both U.S.-flag commercial vessels, as well as for the Navy logistics support vessels, and the surge capacity. And as U.S.-flag ships decline in numbers, then the mariner jobs associated with those potentially also declines, and that is something that we watch carefully.    Ultimately, American depends on the Defense Department to be ready to execute its national security missions. That is why we are here. The availability of ships and mariners from the U.S. Merchant Marine is an important element of that readiness. With that, Mr. Chairman, I want to conclude my opening remarks. I thank you for holding this hearing, and inviting us to participate, and I look forward to answering any questions you may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rouzer. Mr. Jaenichen?       STATEMENT OF HON. PAUL N. ``CHIP'' JAENICHEN, Sr.,</t>
   </si>
   <si>
-    <t>Jaenichen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jaenichen. Thank you, Mr. Chairman, good morning. Chairman Hunter, Ranking Members Costa and Garamendi, and Members of the Subcommittees, I want to thank you for the opportunity to discuss the United States Merchant Marine and its relationship to U.S. international food aid programs. I would like to note that the U.S. Merchant Marine is one of the safest fleets in the world, however, there is some risk involved whenever you are exposed to the elements, as noted by the tragic loss of the El Faro during Hurricane Joaquin. And as I point that out, we commend the sacrifice of those mariners who lost their lives.    The U.S. Merchant Marine Act of 1936 declared that establishing an American Merchant Marine is a national priority. Over the course of their storied history, our nation's Merchant Mariners have made important contributions to a wide range of U.S. defense activities, and have provided critical support for both national emergencies and our economic security. To maintain a maritime presence in global trade, and assured ready access to ships and crews, to be able to move our armed forces when and where they are needed, the United States supports a fleet of privately owned and operated ships in international trade. The sufficiency of the mariner pool to support a large scale activation of the 61 ship government reserve sealift fleet, and the two vessels we have that support the Missile Defense Agency, directly depend upon the number of commercial U.S.-flag vessels that are actively sailing.    A fleet that is sufficiently sized provides an adequate pool of qualified Merchant Mariners to meet the crewing requirements of both the commercial and the government sealift fleets to meet national defense requirements, during both national emergencies, and normal peacetime operations. To encourage an active privately owned and operated U.S.-flag fleet, Congress has enacted several measures, known as cargo preference laws. These laws require that shippers use U.S.-flag vessels to transport certain government-impelled cargoes, meaning cargo that is funded or financed in any way by the Federal Government. Congress has also passed the Maritime Security Act, which established the Maritime Security Program, or MSP, which provides direct annual stipends for a 60 ship, active, commercially viable, militarily useful, privately owned U.S.-flag vessels in exchange for assured access by the Department of Defense. Of the 78 vessels that trade internationally currently today, 57 participate in the MSP program, although the authorized level is 60. This is the first time that I know of that a Maritime Administrator has testified before Congress where we had vacancies in this critical program. The MSP provides critical employment for up to 2,400 U.S. Merchant Mariners, creating a reliable pool of mariners ready to support the activation of the government's reserve sealift fleets.    With respect to U.S. food aid programs, and like other civilian cargoes under cargo preference, substantial food aid is shipped on U.S.-flag vessels. In 2014 over 800,000 metric tons of food aid were shipped on U.S.-flag vessels. The vast majority of that tonnage, nearly 600,000 tons, consisted of P.L. 83-480 Title II food aid. Further, over \\1/2\\ of the Title II food aid cargo, 54 percent, is carried on dry bulk vessels, which, unlike most of the liner vessels, are not part of the MSP, and receive no active government support beyond cargo preference. Based on the recent levels of P.L. 83-480 Title II food aid shipments internationally, the Maritime Administration estimates that the food aid cargo preference laws sustains seven to ten liner-type ships and two dry bulk vessels in the U.S.-flag fleet, along with approximately 360 to 480 mariner jobs.    While the Fiscal Year 2016 President's budget includes the Administration's food aid reform proposal, we have been prepared to work with Members of Congress and other stakeholders on alternate legislative approaches to achieve the Administration's goal for food aid reform. These goals include providing additional statutory flexibility that would allow feeding more starving people for no additional cost, while addressing the potential impact on food aid reform on maritime capacity for national security, and the potential to ensure minimal harm to domestic agricultural interests. The number of vessels in the international trading fleet has declined from 106 vessels at the end of 2011 to 78 as of the 31st of October of this year. This decline can be directly attributed and related to the reductions in both DOD and agricultural cargoes, including food aid, in recent years. Vessel owners have taken into account a variety of factors before making a decision to leave the U.S.-flag fleet.    However, we do know that the primary reason that privately owned and operated ships remain in international trade under U.S.-flag is to carry cargo. We also know that reduction in our fleet of U.S.-flag vessels trading internationally means a reduction in mariner jobs. MARAD closely tracks every billet onboard active commercial ships and government U.S.-flag ships, and we believe the current number of available mariners is only sufficient to meet the initial sealift surge when government reserve ships are activated. However, it will be extremely challenging to sustain crewing requirements over an extended period that requires a rotation of those crew members. Given this assessment, I am working closely with the Department of Defense, the U.S. Transportation Command, the U.S. Navy, and commercial maritime industry to develop proposals to maintain the adequate number of trained mariners. In addition, we are currently developing a National Maritime Strategy that will consider a comprehensive range of options to preserve and grow the U.S. Merchant Marine. I am very glad to have the opportunity to discuss the important issues with these Committees, and I look forward to any questions that you might have.</t>
   </si>
   <si>
@@ -433,9 +415,6 @@
     <t xml:space="preserve">    Mr. Rouzer. Mr. Kelly.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelly. Thank you, Mr. Chairman, and Ranking Member, and I thank the witnesses for being here. I have been on the receiving end of getting those goods on ships into theaters, and I understand having the capacity when we need it in a full spell, and there is a whole lot of difference between a Desert Storm and the type of wars that we are in right now, as far as what kind of material you have to ship. Your capacity needs to be built so that we can send the right amount of tanks, Brads, self-propelled Howitzers, all those very heavy things that take up a lot of space also.    But as a theater matures, the need for that fleet goes down. No matter how long you stay in theater, you don't have to keep re-supplying. Your supplies change, and the types. So do you feel like, on a surge capacity, like Desert Storm, for a high-intensity conflict, as we say in the military, do you feel like we have sufficient ships now that could get us to where we need to be so that soldiers, sailors, airmen, and Marines have the right equipment when they arrive in theater?</t>
   </si>
   <si>
@@ -469,9 +448,6 @@
     <t xml:space="preserve">    Mr. Rouzer. The gentlelady from California, Ms. Hahn.</t>
   </si>
   <si>
-    <t>Hahn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hahn. Thank you, Mr. Chairman, and our Ranking Members here today for this joint hearing. While USDA and USAID currently provide lifesaving support to people around the world in a manner that ensures minimal fraud, they are not perfect. But what we are hearing, of course, is these food aid programs support our maritime industry, an industry that is crucial for our U.S. national security. And what we have heard is a strong U.S. maritime industry prepares our nation not only for the threats today, but the threats that we can't even comprehend tomorrow. And I just want to urge these Committees to consider the impacts of food aid reform that are being discussed. I certainly want to make our aid more efficient and accountable, but not if it means compromising a critical industry for our national security.    So we have heard how more cargo supports our maritime industry, and our U.S.-flag ships, and we sort of touched on it a little bit, but the actual delivery of aid and food is compromised if we are just talking about cash, not just because of the fraud issue, but let us remember some of the emergencies that we have had recently. The Philippines, that was ravaged by a typhoon, and we fed millions in the months that followed. But if we had relied just on developing farms, or cash to buy locally grown food, where was the capacity to purchase that food?    I really want to talk about the actual delivering of the aid. Whether it be natural disasters, or climate change, it seems to me that we are having more drought. We are having more natural disasters. So if we switched to buying locally, and I am going to ask this to Mr. Berteau, what happens if that is where our focus is? If we are focused on buying locally, and cash instead of delivering food, how is this impacted by these natural disasters in the areas where we are attempting to deliver aid?</t>
   </si>
   <si>
@@ -496,9 +472,6 @@
     <t xml:space="preserve">    Mr. Rouzer. I see the Chairman of the full Committee has arrived. All right. Mrs. Hartzler?</t>
   </si>
   <si>
-    <t>Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman. Thank you, gentlemen, for being here, and please walk us through the number of mariners that would be available during times of war, and how that number is calculated.</t>
   </si>
   <si>
@@ -535,9 +508,6 @@
     <t xml:space="preserve">    Mr. Rouzer. Mr. Newhouse?</t>
   </si>
   <si>
-    <t>Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman, and thank you, Mr. Secretary and Mr. Administrator, for being here with us this morning. I just have one question in this area to ask you about. And following up a little bit on Mrs. Hartzler's line of questioning. Being from the State of Washington, we have a significant, I guess you could say, access to the Pacific Rim, but also that means access to areas of potential conflict, also areas of regular food need. So just some questions about how flagships are selected. Does geographical distribution play into that equation? And how much does proximity to potential conflict areas play into that? And how much deals with where food aid is being sent and distributed?</t>
   </si>
   <si>
@@ -556,18 +526,12 @@
     <t xml:space="preserve">    Mr. Rouzer. I would like to thank our witnesses on this first panel. I appreciate you being here today. I would like to go ahead and call forward our second panel at this time.    We have with us on our second panel Mr. James Caponiti, President of the American Maritime Congress, Mr. Philip Shapiro, President and CEO of Liberty Maritime Corporation, Captain John Murray, President and CEO of Hapag-Lloyd USA, LLC, and Mr. Brian Schoeneman, Political and Legislative Director, Seafarer's International Union. I would like to thank each of you gentlemen for being here today, and, Mr. Caponiti, we will begin with you. And, if you can, try to keep your comments to 5 minutes.</t>
   </si>
   <si>
-    <t>Caponiti</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Caponiti. I am sorry, I haven't done this in a while. Good morning, Chairman Rouzer, Chairman Hunter, Ranking Member Costa, Ranking Member Garamendi, and Members. I appreciate the opportunity to testify on behalf of USA Maritime on the importance of the Maritime Security Program and food aid cargo preference to international trade and U.S.-flag fleet. USA Maritime is a coalition of ship owning companies, maritime labor organizations, and maritime trade associations which directly or indirectly represent the vast majority of privately owned U.S.-flag oceangoing commercial vessels operating regularly in U.S. foreign trade. For the record, I have submitted a list of members of the coalition. USA Maritime strongly supports the Maritime Security Program, and existing cargo preference laws applicable to military and civilian government-impelled cargoes. Taken together, MSP and cargo preference programs are the principal means by which our national interests are served by maintaining a U.S.-flag presence in international water-borne trade.    Though it is fundamentally a commercial enterprise, the U.S. Merchant Marine has proven throughout history its capability to serve as an auxiliary force to the Navy. The often overlooked fourth arm of defense, as referenced by President Franklin Delano Roosevelt, the U.S. Merchant Marine and American seafarers have been called upon repeatedly to deliver U.S. military personnel and material to areas of conflict or emergency, no matter where they occur. The maintenance of a strong privately owned U.S.-flag Merchant Marine has remained an essential part of our nation's official national security strategy.    According to National Security Directive 28, signed by President Bush in 1989, ``Sealift is essential both to executing this country's forward defense strategy and to maintaining a wartime economy. The United States' national sealift objective is to ensure that sufficient military and civil maritime resources will be available to meet defense deployment, and essential economic requirements in support of our national security strategy.'' This policy remains intact, and equally relevant, today. The U.S. Merchant Marine has continued to demonstrate its value as a strategic resource in the 21st century, providing worldwide shipping facilities in support to the Department of Defense, and to essential foreign assistance programs, as well as to provide water-borne response for domestic and international disaster recovery operations.    MSP is a government-private partnership between the U.S. Government and the U.S.-flagged shipping industry, whereby DOD has provided assured access to privately owned commercial shipping assets, related global intermodal systems, and the active pool of U.S. citizen mariners necessary to deploy and sustain ground forces and related equipment during overseas combat operations. The development and implementation of MSP during the 1990s grew from an effort to re-engineer sealift capability as a consequence of lessons learned from the first Gulf War in 1990 and 1991. Less than a decade later, with respect to Afghanistan and Iraq, the effectiveness of MSP and its companion sealift readiness program were well proven during the sealift campaigns to support U.S. military operations and rebuilding programs.    The U.S. Government also administers a framework of cargo preference statutes designed to promote and sustain the U.S.-flagged fleet by prescribing a level of access to military and civilian government-impelled cargoes. It is important that these statutes, and the related programs, are adhered to by Federal agencies to ensure that taxpayer dollars are spent, at least in part, to promote U.S.-flagged shipping, thereby preserving national security as an alternative to the employment of foreign flag shipping and foreign crews.    Cargo preference laws remain essential to maintaining a robust commercial U.S. Merchant Marine. Virtually every privately owned U.S.-flagged vessel engaged in foreign trade depends, to some degree, on cargo preference to remain economically viable. Indeed, without cargo preference, it is no exaggeration to say that the U.S.-flagged international trade fleet would continue to diminish to a level approaching MSP enrollment, currently at 60 vessels. As Administrator Jaenichen commented earlier, we have 78 currently in international trade.    Nevertheless, the history of cargo preference administration indicates that cargo reservation requirements are often not self-enforcing, and strict Maritime Administration oversight is necessary to ensure that the law is followed, and its purposes fulfilled, across the U.S. Government. A new regulatory mandate to strengthen MARAD's oversight and enforcement authority has been under consideration for 7 years. USA Maritime remains disappointed that the Administration has thus far failed to formally propose an effective enforcement mechanism.    It is important to note that U.S.-flag capability brought to bear in wartime and emergency missions often includes both U.S. Government owned sealift vessels and privately owned commercial vessels. In those instances, a single pool of trained, qualified mariners is called upon to crew government ships, the majority of which are idle, but maintained in readiness for activation, while simultaneously meeting the requirement to continue crewing commercial vessels. Accordingly, the availability of an adequate cadre of civilian mariners to support the activation and operation of the U.S. Government reserve fleet remains a key element of U.S. strategy and planning. I just need a moment more.    Military planners understand that America's security is best protected when our country relies on a commercial shipping industry domiciled in the United States, employing U.S. citizens both at sea and ashore, and subject to U.S. laws and regulations. Historically, the United States has been able to respond to crises and support military engagements when its U.S.-flagged fleet has been sized to do so. The critical challenge of this strategy has been the availability of an adequate pool of oceangoing citizen mariners to crew the government's reserve ships to meet surge and sustainment requirements. However, an ongoing decline in the number of U.S.-flagged ships operating internationally is negatively impacting the mariner pool, a trend that is raising concern among military planners and industry officials alike.    As MARAD's recent report on cargo preference reduction surmised, continued declines in cargo volumes could erode even the ability to maintain the 60 vessel fleet. In closing, we ask that U.S. cargo preference statutes be supported and upheld by Congress, and that the programs be fully implemented and enforced throughout the Federal Government. Again, thank you for this opportunity. I look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rouzer. Mr. Shapiro?</t>
   </si>
   <si>
-    <t>Shapiro</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shapiro. Good morning, Chairman Rouzer, Chairman Hunter, Chairman Conaway, Ranking Members Costa and Garamendi, and Members of the Subcommittees. Thank you for the opportunity to testify on the important issue of international food aid and the U.S. Merchant Marine. Let me add that your leadership on these issues is to be applauded.    Liberty Maritime has been active in the carriage of P.L. 83-480 cargoes since 1988, and has successfully delivered almost 30 million tons on over 500 voyages to needy people all over the world during the last 27 years. We are proud of the historic accomplishments of the P.L. 83-480 program, and of the critical role of the U.S. Merchant Marine, and the role it has played since 1954 in delivering food and supporting this important program.    You have already heard from other witnesses about how important the carriage of food aid is to the Merchant Marine, as it comprises an essential cargo source for U.S.-flag vessels. I would like to add, from my long experience in this industry, that the current situation is unprecedented in its level of devastation to the U.S.-flag Merchant Marine. The U.S.-flag fleet is suffering economically from an enormous decline in available cargoes, not to mention the MAP-21 reduction from 75 percent to 50 percent carriage. And many ships, including several of our own, have had to re-flag, with the resulting substantial loss of sealift capacity and maritime jobs. So I can say without reservation that the current food aid preference cargo base is already inadequate to support the existing fleet, and that new and substantial support is needed to prevent further deterioration in the fleet size and loss of sealift capabilities needed for the future.    Let me add something about U.S.-flag rates, which have been criticized by out of touch academics. What these critics forget, first and foremost, is U.S.-flag carriers are rate capped by the U.S. Government in its determination of what is a fair and reasonable rate. So we cannot charge more than an average of our cost, plus a modest regulated profit on any particular voyage. And because of a lack of cargoes, and vigorous competition amongst U.S.-flag ocean carriers, we never come close to hitting the regulated profit amount or ceiling.    I would like to say a few words about the Obama Administration proposals to dismantle P.L. 83-480 in the name of reform. As well intended as these proposals may be, they have already done substantial harm to P.L. 83-480, and will do irreversible damage if adopted by Congress. The proposals have put the public narrative on P.L. 83-480's imperfections, rather than recognizing the program's enormously impressive track record, and seeking to improve on it. In fact, it is hard to find another U.S. Government program that has achieved so much for so long with so little. I dare say that if other foreign assistance programs were anything like the P.L. 83-480 program, the American people would actually like foreign aid.    Much of the funding is spent in the U.S. to buy U.S. agricultural products, to mill them here, send them to ports via rails, barges, and trucks, and ship them on U.S.-flag vessels, which are then delivered by U.S.-based private voluntary organizations. And most importantly, the program delivers assistance to persons who need it in a transparent, accountable, and efficient way. I would ask the Members of the two Committees represented here today whether we will be able to say that if P.L. 83-480 becomes a cash giveaway program. Will the American people support a giveaway program of cash that inevitably will be neither transparent nor accountable? I don't think we need any polling done to know the answer to that question.    We strongly urge caution and prudence before dismantling a program that has worked so well for so long, and won't be easy to reconstitute if it turns out that cash and vouchers are the wrong way to go. We already are the leading provider of cash aid in the world. We need do no more. Indeed, we believe the evidence is already accumulating that shows that cash and vouchers lead, as one would expect intuitively, to enormous diversions of funds, fraud, waste, and abuse. I commend the Subcommittees to the November 2014 United Nations Inspector General report, and to the 2015 GAO reports, both of which indicate that cash voucher programs are rife with fraud and abuse, and lack transparency and accountability. One of my favorite vignettes from those reports is the admission by GAO that the only verification that vouchers are ending up in the right hands to be used for the right purposes has been by satellite surveillance. I urge the Subcommittees to contemplate how likely is it that sporadic satellite surveillance can prevent voucher fraud and abuse in Africa.    From my own company's long experience, I can tell you that when we are hired to deliver food, not only to a foreign country, but also directly to a refugee camp, that food gets there every time. We take that obligation seriously, and shipping contracts make it our responsibility. The food gets delivered to the dock, or to the inland refugee camp, whatever is called for in the contract. Let me add that the President's proposal to transfer 25 percent more of P.L. 83-480 funding to be used for further cash giveaways tied to a one-time payment to carriers is unacceptable. It would hasten the dismantling of the P.L. 83-480 program in exchange for a token gesture. The U.S. Merchant Marine needs sustained support, not a severance payment.    I respectfully urge that, instead of destroying P.L. 83-480, Congress should consider ways to improve the purchasing, transportation, and distribution of in-kind food aid. We would be pleased to offer suggestions, as I am sure other carriers and program participants would as well. Most of the available ideas are not new. They have been proposed by GAO and others over the years, and ignored by shipper agencies, especially USAID. For example, the way shipper agencies contract for transportation services unnecessarily costs the U.S. Government money. In the commercial sector, contracts tend to apportion risk and responsibility to the person in the transportation chain that has the most control, and can mitigate the risk.    So, for example, where the ocean carrier does not control the ocean terminal, the terminal is responsible for loading or discharge delays caused by its employees or actions, not the ocean carrier. Yet, ironically, the U.S. Government ignores this commercial sensibility in favor of putting all the risk and responsibility on the ocean carrier, even for things totally out of its control. The inevitable result is the ocean carrier rates are higher than they have to be to account for this risk.    From the adoption of commercial terms, to incorporating priority berthing on load and discharge ports, these are just two of many contracting practices that would increase efficiency and lower costs. There are other--many other examples of ideas that can improve efficiency. We hope that we can continue to work with the Agriculture and Transportation and Infrastructure Committees to have those ideas reviewed and vetted for possible changes to the law. First and foremost, we need to reinstate the 75 percent carriage requirement that was in effect for the last 25 years, until the MAP-21 legislation 3 years ago.    Thank you again for inviting me to appear here, and I would be pleased to answer any questions you or your colleagues may have.</t>
   </si>
   <si>
@@ -577,27 +541,18 @@
     <t xml:space="preserve">    Mr. Rouzer. Point made. Try to keep your comments to 5 minutes, and there will be plenty of opportunity to expound during the question and answer session.</t>
   </si>
   <si>
-    <t>Murray</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murray. Good morning, Chairman Rouzer, Chairman Hunter, Chairman Conaway, Ranking Members Garamendi and Costa, and the Members of both of these important Subcommittees. I appreciate the opportunity to testify today on the subject of food aid, cargo preference, and the importance of the Maritime Security Program to the United States. As President and CEO of Hapag-Lloyd USA, I deal with these subjects every day in the ordinary course of business. My testimony today aims to highlight the importance of these programs to maintaining a viable U.S. merchant fleet that is so essential to the national security of our country.    Hapag-Lloyd USA is an American subsidiary of the global container carrier Hapag-Lloyd AG. We operate five container ships in a weekly liner service between the United States and North Europe. All five ships are crewed by American mariners, and fly the American flag. They carry cargo that sustains the U.S. military mission, and its service members, based in Europe and beyond, as well as other preference cargo, including American food aid that is delivered to destinations well beyond Europe. Our company has operated American ships in the foreign commerce of the United States since the early 1900s. Known then as Lykes Lines, the company supported our nation's sealift requirements for more than 90 years, including two World Wars, and numerous other humanitarian and military missions. When Congress enacted the Maritime Security Program in 1996, our company was one of the first to enroll. To this day, we have maintained continuous commitment to both MSP and the Voluntary Intermodal Sealift Agreement.    Mr. Chairman, today's hearing also allows me the opportunity to speak personally about my experience as a U.S. Merchant Mariner, where I began my career. I graduated from Maine Maritime Academy in 1979, and sailed as a deck officer in the Lykes fleet. Our company then operated more than 40 U.S.-flag ships alone, greater than \\1/2\\ of our nation's entire U.S.-flag fleet today. Preference cargoes were abundant then, and for our company, the most significant was the U.S. food aid that we carried to distressed nations throughout the world. To this day I remain proud to have sailed as an American Merchant Mariner, to have been part of the transportation link that delivered American produced food to desperate people in their time of need.    Throughout our nation's history, the U.S. merchant fleet of privately owned U.S.-flag commercial ships, and their U.S. citizen crews, have always met our nation's call. We have consistently, efficiently, and effectively provided the commercial sealift capacity and the civilian mariners needed to meet our nation's worldwide military and political objectives. For example, the recent conflict in Afghanistan presented unique logistical challenges for U.S. military planners due to the country's landlocked borders. With an urgent need for new assured gateways, the Department of Defense turned to the MSP carriers to develop alternative routes. By leveraging existing intermodal networks, the MSP carriers were able to develop and expand new northern gateways into Afghanistan, and thus provide the DOD with continuous seamless distribution of supplies to our war fighters when other gateways were closed. It is not well known that certain U.S.-flag carriers had long been using this route, which gained fame as the Northern Distribution Network, to deliver U.S. food aid to counties in Central Asia. This is an excellent example of the partnership and interdependency that exists between DOD and the MSP operators.    A strong Maritime Security Program is necessary to ensure the long-term success of the U.S.-flag fleet. American ships are simply more expensive to operate than their international counterparts. They are crewed by Americans, registered in the United States, and subject to U.S. laws, taxes, and regulations, all of which are greater than international flag options. The MSP stipend partially compensates for this cost difference, but the remaining cost delta must be achieved through access to our nation's cargo preference programs that reserve cargo specifically for U.S.-flag ships. There are three U.S. cargo preference laws that are vital to the U.S. maritime industry, and must be preserved, namely the Cargo Preference Act of 1904, Public Resolution 17, which governs the Export-Import Bank, and the Cargo Preference Act of 1954. Congress enacted these laws to ensure that U.S. operators have a sufficient U.S. cargo base for their ships operating in foreign commerce. Strict enforcement of these laws is fundamental to our business success, and our survival as U.S.-flag carriers. It is worth noting that the volume of cargo moving under these programs for our company is the lowest I have seen in the last 20 years, with a significant reduction just in the last 12 months.    Mr. Chairman, I would like to summarize my testimony as an MSP operator and a businessman. U.S. companies own all of the ships in the U.S.-flag privately owned fleet. As executives for these companies, we must routinely address the operational and political realities of our U.S.-flag businesses with our boards and shareholders. We frequently are asked to explain the implications of newswire political issues, such as the MAP-21 food aid reduction, the expiration of the Ex-Im Bank charter, the future of MSP funding levels, and the overall degradation of U.S.-flag cargo, all of which are the result of budget cuts and reallocation of government priorities. To be blunt, our business model has become a tough sell with our shareholders, who, coincidentally, are the same folks that approve capital investments for the future of the U.S.-flag fleet. Given the precipitous decline in preference cargoes, combined with current MSP levels, I now believe it unlikely that we could retain the 60 ship MSP fleet if a comparable MSP shortfall were to occur today, such as the one that occurred in 2013. Likewise, a failure to realistically adjust the funding levels for MSP may yield a similar result.    As a former Merchant Mariner, and a lifelong advocate of a strong U.S.-flag Merchant Marine, I know how urgent it is that we stabilize our few remaining U.S.-flag ships through the programs that exist today. The unfortunate reality of the business world is that if a service, product, or business unit does not perform, it is eliminated. Our nation's remaining U.S.-flag fleet is dangerously close to this reality.    Mr. Chairman, thank you for the time and the opportunity to testify before the joint Committees.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rouzer. Mr. Schoeneman?</t>
   </si>
   <si>
-    <t>Schoeneman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schoeneman. Thank you, Chairman Rouzer, Chairman Hunter, Chairman Conaway, and Ranking Members Costa and Garamendi for the invitation to testify here today. My name is Brian Schoeneman, and I serve as the Legislative Director for the Seafarers International Union. I am here today representing all of seagoing labor, which includes the seafarers, the marine engineers, the masters, mates, and pilots, and the American maritime officers. Together, our four unions and our affiliates represent the bulk of America's internationally sailing civilian mariners. Before I begin, I would like to thank personally Chairman Hunter, on behalf of maritime labor, for his remarks on the floor of the House regarding the loss of the S.S. El Faro last month. It is hard to understate how difficult this has been to our union families, and it was a tremendous blow to the American Merchant Marine, and your heartfelt remarks meant a lot to the families of the crew, and all of us in the industry, so thank you, sir.    I want to thank all the Members of both Subcommittees for holding this hearing today. All too often, when it comes to our international food aid program, the maritime industry is largely ignored. When we aren't ignored, we are vilified and lied about, accused of starving children and being greedy shills for foreign fat cats lining their pockets with taxpayer dollars. That is a fantasy. The reality is that the men and women of the American Merchant Marine have been a critical part of America's food aid program since their inception. As they have since the earliest days of our republic, our mariners put their lives on the line every time they leave the dock. Whether it is braving pirate infested waters, like the crew of the Maersk Alabama did to deliver food aid to Africa, the emergency deliveries of critical supplies to Haiti in the aftermath of the 2010 earthquake, or simply the daily dangers of the sea, as we have recently seen, the men and women of the Merchant Marine have helped make this program the undoubted success that it is. Food aid is, and remains, a critical part of the cargo base that ensures the existence, not the success, merely the existence, of our Merchant Marine. Our fleet employs thousands of Americans in shipboard jobs alone, and tens of thousands more in maritime and agriculture. If food aid cargo preference were to disappear, those jobs would disappear with it, and they won't come back. And with those jobs goes America's ability to project power and defend our allies and interests abroad.    When it comes to food aid, the anti-maritime special interests have one goal, and that is to undermine the traditional relationship between agriculture, maritime, and the private voluntary organizations who have made our program so successful. We refuse to let them succeed. The arguments they make, essentially that food aid isn't an important source of cargo for the industry, that it isn't important to our farmers, and that ending in-kind food aid wouldn't cost a single job, are ludicrous on their face. Despite these recklessly false claims often made by hack academics who wouldn't know a bow from a stern, you all heard what the Maritime Administrator testified to earlier. There is no denying that the loss of food aid cargo resulting from reductions in appropriations, and the cuts to cargo preference in MAP-21, has cost this industry ships and jobs.    Over the last 10 years food aid has made up a considerable portion of the preference cargo carried by American carriers, if not the majority. From 2000 to 2013 cargo volumes in the food aid program have dropped 77 percent. In 1999 there were 106 American ships carrying approximately 6 million tons of food aid. In 2013 the fleet had dropped in size to 75 ships, carrying slightly more than 1 million tons of food aid. According to MARAD, since 2010 the size of the U.S.-flag fleet has dropped 23 percent, from 99 ships to the 78 ships mentioned today. And that has resulted in the loss of nearly 1,000 mariner jobs. This loss is not a coincidence. It is the logical, expected result of a continued vicious, well-funded, and relentless assault against America's Merchant Marine and our military readiness. America's Merchant Mariners are a vital national security asset. We cannot allow the bad ideas of a few misguided academics who have forgotten that this program was always more than just a foreign aid program to destroy the jobs of tens of thousands of people, and cripple our ability to defend ourselves and respond to crises around the globe.    I strongly urge you to reject these dangerous arguments. Do not allow the critics of in-kind food aid and the American Merchant Marine to accomplish what the Royal Navy could not do during the Revolution, what German submarines could not do during World War II, and what pirates could not do in 2009. I urge you to continue to support in-kind food aid, cargo preference, and Congress' steadfast support for the United States Merchant Marine. Thank you all, and I will be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rouzer. I thank each of you for your testimony. Mr. Chairman, do you have any comment or question?</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. No, just refreshingly blunt comments from all four of the witnesses, so I thank you for that, but no questions.</t>
   </si>
   <si>
@@ -877,9 +832,6 @@
     <t>412631</t>
   </si>
   <si>
-    <t>Garret Graves</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman. I just want to note for the record that for the last 2 years the House passed Coast Guard authorization bill did include stronger cargo preference enforcement provisions that were ultimately rejected by the other body, so I am going to make a motion to migrate to a unicameral form of government, as opposed to this. No, I am kidding, sort of.    I wanted to mention some things that I have had the opportunity to discuss with some of you in the past, just the kind of competitive regulatory environment in the United States, as compared to other countries where you operate. Can you talk about some of the economic, regulatory, and other factors that have the biggest impact on the number of vessels and the operating environment in the United States, as opposed to other countries?</t>
   </si>
   <si>
@@ -941,9 +893,6 @@
   </si>
   <si>
     <t>400090</t>
-  </si>
-  <si>
-    <t>Elijah E. Cummings</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman. In 2010, when I was the Chairman of the Coast Guard Subcommittee, I convened two hearings to examine the status of a U.S.-flag fleet. During those hearings, our Subcommittee Members bemoaned the continuing decline of the U.S.-flag oceangoing fleet, noted its dependence on preference cargoes, and the MSP program, and emphasized that if we did not take decisive action to arrest the decline, it would continue. During those hearings, we were repeating warnings and observations that had already been made in the 2000s, the 1990s, and then the 1981 GAO study.    In the intervening 5 years, the MAP-21 highway bill cut, from 75 to 50 percent, the amount of government-impelled agricultural commodities that have to be carried on U.S.-flag vessels. The drawdown from Iraq and Afghanistan has sharply reduced U.S. military cargoes, and no new policies have been implemented to stabilize the U.S.-flag fleet in foreign trade. And, guess what, the size of the U.S.-flag oceangoing fleet in foreign trade has continued to decline. When I was Subcommittee Chairman, we had just over 100 vessels in the fleet. As of last month, we have 78.    Today's hearing appears to be an exercise in repetition. However, there is no mystery surrounding the decline of our fleet that needs further study. The only question is whether we, as a nation, are simply resigned to see our oceangoing foreign trade fleet sail away, and leave our nation, and its commerce, totally dependent on foreign flag vessels. I believe that, contrary to mischaracterizations prevalent in the media, that the United States Merchant Marine is an essential component of a vast network of logistics contractors that support our U.S. military and sustain and create broader economic opportunities in communities around our nation. And I also believe that spending U.S. taxpayer dollars to buy food grown by U.S. farmers, and transport it on U.S.-flag vessels crewed by U.S. seafarers is not unlike other Buy America policies that ensure the expenditure of U.S. taxpayer dollars to support the interests of the United States taxpayers.    And with that, let me ask all of the witnesses, what is the most important thing that could be done right now to at least arrest the decline in the U.S.-flag oceangoing fleet in foreign trade?</t>
@@ -1384,11 +1333,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1410,11 +1357,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1434,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1462,11 +1405,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1486,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1514,11 +1453,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1538,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1566,11 +1501,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1590,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1618,11 +1549,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1642,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1670,11 +1597,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1694,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1722,11 +1645,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1746,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1774,11 +1693,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1798,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1824,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1850,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1876,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1902,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1928,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1954,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1980,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2006,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2032,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2058,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2084,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2110,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2136,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2162,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2188,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2214,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2240,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2266,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2292,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2318,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2344,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2370,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2396,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2422,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2448,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2474,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2500,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2526,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2554,11 +2413,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2578,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2604,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2630,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2656,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2682,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2708,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2734,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2760,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2786,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2812,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2838,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2864,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2890,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2916,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2942,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2968,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2994,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3020,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3046,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3072,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3098,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3124,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3150,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3176,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3202,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3228,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3254,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3280,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3306,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3332,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3358,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3384,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3410,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3436,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3462,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3490,11 +3277,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3514,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3540,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3566,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3592,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3618,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3644,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3670,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3696,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3722,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3748,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3774,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3800,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3826,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3852,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3878,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3904,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3930,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3956,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3982,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4008,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4034,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4060,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4086,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4112,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4138,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4164,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4190,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4216,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4242,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4268,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4294,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4320,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4346,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4372,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4398,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4424,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4450,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4478,11 +4189,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4502,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>139</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4528,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4554,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>139</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4580,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4606,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>139</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4632,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4658,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4684,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>139</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4710,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4736,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>139</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4764,11 +4453,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4788,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>151</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4814,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4840,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>151</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4866,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4892,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4918,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4944,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>151</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4972,11 +4645,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4996,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>160</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5022,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5048,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>160</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5074,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5100,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>160</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5126,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5152,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>160</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5178,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5204,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
         <v>160</v>
-      </c>
-      <c r="H149" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5230,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5256,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>160</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5284,11 +4933,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5308,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>173</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5334,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5360,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5386,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>173</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5412,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" t="s">
-        <v>173</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5440,11 +5077,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5464,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5492,11 +5125,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5516,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5542,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5570,11 +5197,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5594,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5622,11 +5245,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5646,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5674,11 +5293,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5698,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>193</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5726,11 +5341,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5750,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5778,11 +5389,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5802,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
         <v>183</v>
-      </c>
-      <c r="H172" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5828,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5854,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5880,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5908,11 +5509,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5932,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5958,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5984,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6010,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6036,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6062,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6088,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6114,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6140,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6166,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6192,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6218,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6244,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
-      </c>
-      <c r="G189" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6270,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6296,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
-      </c>
-      <c r="G191" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6322,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6348,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6374,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
-      </c>
-      <c r="G194" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6400,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>15</v>
-      </c>
-      <c r="G195" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6426,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>15</v>
-      </c>
-      <c r="G196" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6452,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>15</v>
-      </c>
-      <c r="G197" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6478,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6504,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6530,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6558,11 +6109,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6582,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6608,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>15</v>
-      </c>
-      <c r="G203" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6634,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6660,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6686,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6712,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>15</v>
-      </c>
-      <c r="G207" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6738,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6764,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6790,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6816,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6842,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6868,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6894,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>15</v>
-      </c>
-      <c r="G214" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6920,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
-      </c>
-      <c r="G215" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6946,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6972,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6998,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>19</v>
-      </c>
-      <c r="G218" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7024,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>15</v>
-      </c>
-      <c r="G219" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7050,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>19</v>
-      </c>
-      <c r="G220" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7076,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
-      </c>
-      <c r="G221" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7102,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>15</v>
-      </c>
-      <c r="G222" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7128,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7154,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>15</v>
-      </c>
-      <c r="G224" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7180,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7206,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>15</v>
-      </c>
-      <c r="G226" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7232,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7258,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>15</v>
-      </c>
-      <c r="G228" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7284,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7310,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>15</v>
-      </c>
-      <c r="G230" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7336,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7362,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>15</v>
-      </c>
-      <c r="G232" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7388,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7414,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>15</v>
-      </c>
-      <c r="G234" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7440,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7466,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>15</v>
-      </c>
-      <c r="G236" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7492,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7518,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>15</v>
-      </c>
-      <c r="G238" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7544,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7570,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>15</v>
-      </c>
-      <c r="G240" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7596,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7622,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>15</v>
-      </c>
-      <c r="G242" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7648,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7674,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7700,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7726,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
-      </c>
-      <c r="G246" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7752,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>15</v>
-      </c>
-      <c r="G247" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7778,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>19</v>
-      </c>
-      <c r="G248" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7804,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7832,11 +7285,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7856,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>23</v>
-      </c>
-      <c r="G251" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7882,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>15</v>
-      </c>
-      <c r="G252" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7908,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>23</v>
-      </c>
-      <c r="G253" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7934,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>23</v>
-      </c>
-      <c r="G254" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7960,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>15</v>
-      </c>
-      <c r="G255" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7986,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>15</v>
-      </c>
-      <c r="G256" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8012,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>23</v>
-      </c>
-      <c r="G257" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8038,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>15</v>
-      </c>
-      <c r="G258" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8064,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>15</v>
-      </c>
-      <c r="G259" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8090,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>23</v>
-      </c>
-      <c r="G260" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8118,11 +7549,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>12</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8142,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>286</v>
-      </c>
-      <c r="G262" t="s">
-        <v>287</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8168,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>15</v>
-      </c>
-      <c r="G263" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8194,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>286</v>
-      </c>
-      <c r="G264" t="s">
-        <v>287</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8220,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>15</v>
-      </c>
-      <c r="G265" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8246,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>286</v>
-      </c>
-      <c r="G266" t="s">
-        <v>287</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8272,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>15</v>
-      </c>
-      <c r="G267" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8298,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>286</v>
-      </c>
-      <c r="G268" t="s">
-        <v>287</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8324,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>15</v>
-      </c>
-      <c r="G269" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8350,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>15</v>
-      </c>
-      <c r="G270" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8376,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>15</v>
-      </c>
-      <c r="G271" t="s">
-        <v>180</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8402,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>286</v>
-      </c>
-      <c r="G272" t="s">
-        <v>287</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8428,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>286</v>
-      </c>
-      <c r="G273" t="s">
-        <v>287</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8454,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>15</v>
-      </c>
-      <c r="G274" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8480,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>15</v>
-      </c>
-      <c r="G275" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8506,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
+        <v>271</v>
+      </c>
+      <c r="G276" t="s"/>
+      <c r="H276" t="s">
         <v>286</v>
-      </c>
-      <c r="G276" t="s">
-        <v>287</v>
-      </c>
-      <c r="H276" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8532,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>15</v>
-      </c>
-      <c r="G277" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8558,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>15</v>
-      </c>
-      <c r="G278" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8584,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>15</v>
-      </c>
-      <c r="G279" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8610,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>15</v>
-      </c>
-      <c r="G280" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8638,11 +8029,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8662,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>308</v>
-      </c>
-      <c r="G282" t="s">
-        <v>309</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8688,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>15</v>
-      </c>
-      <c r="G283" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8714,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>308</v>
-      </c>
-      <c r="G284" t="s">
-        <v>309</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8740,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>15</v>
-      </c>
-      <c r="G285" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8766,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>308</v>
-      </c>
-      <c r="G286" t="s">
-        <v>309</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8792,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>15</v>
-      </c>
-      <c r="G287" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8818,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>308</v>
-      </c>
-      <c r="G288" t="s">
-        <v>309</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8844,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>308</v>
-      </c>
-      <c r="G289" t="s">
-        <v>309</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8870,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>15</v>
-      </c>
-      <c r="G290" t="s">
-        <v>187</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8896,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>15</v>
-      </c>
-      <c r="G291" t="s">
-        <v>183</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8922,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>15</v>
-      </c>
-      <c r="G292" t="s">
-        <v>190</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8948,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>308</v>
-      </c>
-      <c r="G293" t="s">
-        <v>309</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8976,11 +8341,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9000,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>23</v>
-      </c>
-      <c r="G295" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
